--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -405,13 +405,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>charAssets.bson</v>
+        <v>CharAssets.zip</v>
       </c>
       <c r="B2" t="str">
-        <v>charAssets.bson</v>
+        <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6236179</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>VersionHash</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6236179</v>
+        <v>6253119</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6253119</v>
+        <v>6253148</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6253148</v>
+        <v>6253199</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6253199</v>
+        <v>6318556</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6318556</v>
+        <v>6486581</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6486581</v>
+        <v>6487008</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6487008</v>
+        <v>6583170</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6583170</v>
+        <v>6583115</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6583115</v>
+        <v>6652910</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6652910</v>
+        <v>6652897</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6652897</v>
+        <v>6605879</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6605879</v>
+        <v>6629542</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6629542</v>
+        <v>6687135</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6687135</v>
+        <v>6732444</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6732444</v>
+        <v>6790712</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6790712</v>
+        <v>6876257</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6876257</v>
+        <v>6958142</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6958142</v>
+        <v>6895926</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6895926</v>
+        <v>6963306</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6963306</v>
+        <v>6963309</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>6963309</v>
+        <v>7025270</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7025270</v>
+        <v>7025319</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7025319</v>
+        <v>7070040</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7070040</v>
+        <v>7069622</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7069622</v>
+        <v>7179538</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7179538</v>
+        <v>7202874</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7202874</v>
+        <v>7202816</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7202816</v>
+        <v>7278697</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7278697</v>
+        <v>7331923</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7331923</v>
+        <v>7333469</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7333469</v>
+        <v>7333507</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7333507</v>
+        <v>7348204</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7348204</v>
+        <v>7332572</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7332572</v>
+        <v>7332582</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7332582</v>
+        <v>7378884</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7378884</v>
+        <v>7433498</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7433498</v>
+        <v>7485773</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7485773</v>
+        <v>7485851</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7485851</v>
+        <v>7528770</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7528770</v>
+        <v>9716917</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9716917</v>
+        <v>9773221</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9773221</v>
+        <v>7676459</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7676459</v>
+        <v>7942199</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7942199</v>
+        <v>7986280</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>7986280</v>
+        <v>8022725</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8022725</v>
+        <v>8035559</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8035559</v>
+        <v>8035510</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8035510</v>
+        <v>8119344</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8119344</v>
+        <v>8237256</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8237256</v>
+        <v>8516291</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8516291</v>
+        <v>8267149</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8267149</v>
+        <v>8290039</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8290039</v>
+        <v>8327915</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8327915</v>
+        <v>8327638</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8327638</v>
+        <v>8341022</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8341022</v>
+        <v>8340749</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8340749</v>
+        <v>8605559</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8605559</v>
+        <v>8606037</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8606037</v>
+        <v>8606300</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8606300</v>
+        <v>8637570</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8637570</v>
+        <v>8698023</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8698023</v>
+        <v>8698053</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8698053</v>
+        <v>8715722</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8715722</v>
+        <v>8749285</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8749285</v>
+        <v>8837323</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8837323</v>
+        <v>8847351</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8847351</v>
+        <v>8866400</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8866400</v>
+        <v>8895649</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8895649</v>
+        <v>8968664</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>8968664</v>
+        <v>9054698</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9054698</v>
+        <v>9054858</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9054858</v>
+        <v>9174480</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9174480</v>
+        <v>9290224</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9290224</v>
+        <v>9281166</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9281166</v>
+        <v>9307642</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9307642</v>
+        <v>9307589</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9307589</v>
+        <v>9350085</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9350085</v>
+        <v>9515013</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9515013</v>
+        <v>9531208</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9531208</v>
+        <v>9566042</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9566042</v>
+        <v>9566008</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9566008</v>
+        <v>9593892</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9593892</v>
+        <v>9506101</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9506101</v>
+        <v>9546036</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9546036</v>
+        <v>9696041</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9696041</v>
+        <v>9696395</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9696395</v>
+        <v>9705411</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9705411</v>
+        <v>9742279</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -411,7 +411,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9742279</v>
+        <v>9773426</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -9,6 +9,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F2</definedName>
   </definedNames>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>9773426</v>
+        <v>10290855</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10290855</v>
+        <v>10312438</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10312438</v>
+        <v>10348659</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10348659</v>
+        <v>10359384</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10359384</v>
+        <v>10359580</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10359580</v>
+        <v>10409320</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10409320</v>
+        <v>10418786</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10418786</v>
+        <v>10430396</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10430396</v>
+        <v>10501464</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10501464</v>
+        <v>10550718</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10550718</v>
+        <v>10577501</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10577501</v>
+        <v>10591960</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10591960</v>
+        <v>10606299</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10606299</v>
+        <v>10618853</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$2</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10618853</v>
+        <v>10673138</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10673138</v>
+        <v>10704588</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10704588</v>
+        <v>10717494</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10717494</v>
+        <v>10745397</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10745397</v>
+        <v>10767779</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10767779</v>
+        <v>10766546</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10766546</v>
+        <v>10777831</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10777831</v>
+        <v>10864490</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10864490</v>
+        <v>10871484</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10871484</v>
+        <v>10911729</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10911729</v>
+        <v>10919016</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10919016</v>
+        <v>10911748</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10911748</v>
+        <v>10918820</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10918820</v>
+        <v>10943671</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10943671</v>
+        <v>10946377</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10946377</v>
+        <v>10946373</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10946373</v>
+        <v>10952056</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10952056</v>
+        <v>10981192</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10981192</v>
+        <v>10979630</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10979630</v>
+        <v>10998380</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>10998380</v>
+        <v>11043736</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11043736</v>
+        <v>11064954</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11064954</v>
+        <v>11064985</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11064985</v>
+        <v>11137456</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11137456</v>
+        <v>11147453</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11147453</v>
+        <v>11148615</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11148615</v>
+        <v>11249750</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11249750</v>
+        <v>11305898</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11305898</v>
+        <v>11307427</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11307427</v>
+        <v>11356455</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11356455</v>
+        <v>11363539</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11363539</v>
+        <v>11363813</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11363813</v>
+        <v>11373839</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11373839</v>
+        <v>11377553</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11377553</v>
+        <v>11373774</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11373774</v>
+        <v>11407656</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11407656</v>
+        <v>11407860</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11407860</v>
+        <v>11443928</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11443928</v>
+        <v>11444206</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11444206</v>
+        <v>11444853</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11444853</v>
+        <v>11466139</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11466139</v>
+        <v>11450453</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11450453</v>
+        <v>11449776</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11449776</v>
+        <v>11456887</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11456887</v>
+        <v>11459553</v>
       </c>
       <c r="D2" t="str">
         <v/>

--- a/client_gamedata/charAssets.xlsx
+++ b/client_gamedata/charAssets.xlsx
@@ -433,7 +433,7 @@
         <v>CharAssets.zip</v>
       </c>
       <c r="C2">
-        <v>11459553</v>
+        <v>11486591</v>
       </c>
       <c r="D2" t="str">
         <v/>
